--- a/New PA11 indicators catalogue.xlsx
+++ b/New PA11 indicators catalogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rutkoal\JAF2R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eceuropaeu-my.sharepoint.com/personal/aleksander_rutkowski_ec_europa_eu/Documents/JAF2R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540922B-C34A-42FF-940B-55ECFD230A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{3540922B-C34A-42FF-940B-55ECFD230A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{115638DA-0F06-47A4-BC7D-D3AC195956CC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="18796" xr2:uid="{3492F936-D6E9-40B0-A6A2-70098E7DFFB3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{3492F936-D6E9-40B0-A6A2-70098E7DFFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$AV$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'well defined only'!$A$1:$AV$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="290">
   <si>
     <t>Comments</t>
   </si>
@@ -858,9 +859,6 @@
     <t>unit=PC_POP</t>
   </si>
   <si>
-    <t>PA11f3.S6.</t>
-  </si>
-  <si>
     <t>pp</t>
   </si>
   <si>
@@ -874,9 +872,6 @@
   </si>
   <si>
     <t>wstatus=POP</t>
-  </si>
-  <si>
-    <t>PA11f3.S7.</t>
   </si>
   <si>
     <r>
@@ -906,6 +901,27 @@
   </si>
   <si>
     <t>isced11=ED0-2</t>
+  </si>
+  <si>
+    <t>Youth unemployment ratio (15-29)</t>
+  </si>
+  <si>
+    <t>PA11f5.S7.</t>
+  </si>
+  <si>
+    <t>PA11f5.S6.</t>
+  </si>
+  <si>
+    <t>PA11f5.S5.</t>
+  </si>
+  <si>
+    <t>PA11f5.S3.</t>
+  </si>
+  <si>
+    <t>PA11f5.S2.</t>
+  </si>
+  <si>
+    <t>PA11f5.S1.</t>
   </si>
 </sst>
 </file>
@@ -1370,23 +1386,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AV73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" sqref="A1:AV73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1482,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>35</v>
@@ -1705,9 +1722,7 @@
       <c r="AF4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="AG4" s="6"/>
       <c r="AH4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1736,7 +1751,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="6"/>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1764,7 +1779,9 @@
         <v>53</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>8</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1816,7 +1833,7 @@
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1844,7 +1861,9 @@
         <v>53</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>8</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1896,7 +1915,7 @@
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1924,7 +1943,9 @@
         <v>53</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>8</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2250,7 +2271,7 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
     </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2278,7 +2299,9 @@
         <v>53</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>8</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -2330,7 +2353,7 @@
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
     </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2358,7 +2381,9 @@
         <v>53</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>8</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2412,7 +2437,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
     </row>
-    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2440,7 +2465,9 @@
         <v>53</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>8</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -2494,7 +2521,7 @@
       <c r="AU14" s="6"/>
       <c r="AV14" s="6"/>
     </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2522,7 +2549,9 @@
         <v>53</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6">
+        <v>8</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2576,7 +2605,7 @@
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
     </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2604,7 +2633,9 @@
         <v>53</v>
       </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6">
+        <v>8</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2794,7 +2825,7 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
     </row>
-    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2822,7 +2853,9 @@
         <v>53</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6">
+        <v>8</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2869,7 +2902,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
     </row>
-    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2897,7 +2930,9 @@
         <v>53</v>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>8</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2947,7 +2982,7 @@
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
     </row>
-    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2975,7 +3010,9 @@
         <v>53</v>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>8</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -3025,7 +3062,7 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
     </row>
-    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3053,7 +3090,9 @@
         <v>53</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>8</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -3250,9 +3289,7 @@
       <c r="AF24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG24" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="AG24" s="6"/>
       <c r="AH24" s="6" t="s">
         <v>62</v>
       </c>
@@ -3299,7 +3336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3392,9 +3429,7 @@
       <c r="AF25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG25" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="6" t="s">
         <v>62</v>
       </c>
@@ -3441,7 +3476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3534,9 +3569,7 @@
       <c r="AF26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG26" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="AG26" s="6"/>
       <c r="AH26" s="6" t="s">
         <v>62</v>
       </c>
@@ -3583,7 +3616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3676,9 +3709,7 @@
       <c r="AF27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG27" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="AG27" s="6"/>
       <c r="AH27" s="6" t="s">
         <v>62</v>
       </c>
@@ -3941,7 +3972,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3969,7 +4000,9 @@
         <v>53</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="6">
+        <v>8</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -4021,7 +4054,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4049,7 +4082,9 @@
         <v>53</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6">
+        <v>8</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -4101,7 +4136,7 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4129,7 +4164,9 @@
         <v>53</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="N33" s="6">
+        <v>8</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -4689,7 +4726,7 @@
       <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
     </row>
-    <row r="41" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4717,7 +4754,9 @@
         <v>53</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="6">
+        <v>8</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -4855,7 +4894,7 @@
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
     </row>
-    <row r="43" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4883,7 +4922,9 @@
         <v>53</v>
       </c>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="6">
+        <v>8</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -4918,16 +4959,16 @@
       <c r="AF43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG43" s="6" t="s">
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AH43" s="6" t="s">
+      <c r="AI43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AI43" s="6" t="s">
+      <c r="AJ43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
       <c r="AL43" s="6" t="s">
         <v>62</v>
@@ -4945,7 +4986,7 @@
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
     </row>
-    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4973,7 +5014,9 @@
         <v>53</v>
       </c>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>8</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -5007,7 +5050,6 @@
       <c r="AE44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
@@ -5024,7 +5066,7 @@
       <c r="AU44" s="6"/>
       <c r="AV44" s="6"/>
     </row>
-    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5052,7 +5094,9 @@
         <v>53</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="6">
+        <v>8</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -5104,7 +5148,7 @@
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
     </row>
-    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5132,7 +5176,9 @@
         <v>53</v>
       </c>
       <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6">
+        <v>8</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -5408,7 +5454,7 @@
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5436,7 +5482,9 @@
         <v>53</v>
       </c>
       <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="N50" s="6">
+        <v>8</v>
+      </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -5490,7 +5538,7 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
     </row>
-    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5518,7 +5566,9 @@
         <v>53</v>
       </c>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="N51" s="6">
+        <v>8</v>
+      </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
@@ -5648,7 +5698,7 @@
       <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5676,7 +5726,9 @@
         <v>53</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="N53" s="6">
+        <v>8</v>
+      </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -5703,16 +5755,16 @@
       <c r="AD53" s="6"/>
       <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
-      <c r="AG53" s="6" t="s">
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AH53" s="6" t="s">
+      <c r="AI53" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AI53" s="6" t="s">
+      <c r="AJ53" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
@@ -5842,7 +5894,7 @@
         <v>60</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF55" s="6" t="s">
         <v>202</v>
@@ -5928,7 +5980,7 @@
         <v>60</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF56" s="6" t="s">
         <v>202</v>
@@ -5936,7 +5988,6 @@
       <c r="AG56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
@@ -6028,7 +6079,7 @@
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6056,7 +6107,9 @@
         <v>53</v>
       </c>
       <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="N58" s="6">
+        <v>8</v>
+      </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
@@ -6178,7 +6231,7 @@
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6206,7 +6259,9 @@
         <v>53</v>
       </c>
       <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="N60" s="6">
+        <v>8</v>
+      </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -6373,12 +6428,12 @@
       <c r="AF62" t="s">
         <v>74</v>
       </c>
-      <c r="AG62" s="6"/>
+      <c r="AG62" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
-      <c r="AJ62" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="6"/>
@@ -6588,7 +6643,7 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
     </row>
-    <row r="66" spans="1:48" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6596,7 +6651,7 @@
         <v>254</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>49</v>
@@ -6672,13 +6727,13 @@
       <c r="AU66" s="6"/>
       <c r="AV66" s="6"/>
     </row>
-    <row r="67" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>49</v>
@@ -6700,7 +6755,9 @@
         <v>53</v>
       </c>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="N67" s="6">
+        <v>8</v>
+      </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
@@ -6752,13 +6809,13 @@
       <c r="AU67" s="6"/>
       <c r="AV67" s="6"/>
     </row>
-    <row r="68" spans="1:48" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>49</v>
@@ -6780,7 +6837,9 @@
         <v>53</v>
       </c>
       <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
+      <c r="N68" s="6">
+        <v>8</v>
+      </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
@@ -6832,13 +6891,13 @@
       <c r="AU68" s="6"/>
       <c r="AV68" s="6"/>
     </row>
-    <row r="69" spans="1:48" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>49</v>
@@ -6860,7 +6919,9 @@
         <v>53</v>
       </c>
       <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
+      <c r="N69" s="6">
+        <v>8</v>
+      </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
@@ -6912,13 +6973,13 @@
       <c r="AU69" s="6"/>
       <c r="AV69" s="6"/>
     </row>
-    <row r="70" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>49</v>
@@ -6940,7 +7001,9 @@
         <v>53</v>
       </c>
       <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
+      <c r="N70" s="6">
+        <v>8</v>
+      </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -6967,17 +7030,15 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="6"/>
-      <c r="AG70" s="6" t="s">
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AH70" s="6" t="s">
+      <c r="AI70" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AI70" s="6" t="s">
+      <c r="AJ70" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="AJ70" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="AK70" s="6" t="s">
         <v>62</v>
@@ -6994,13 +7055,13 @@
       <c r="AU70" s="6"/>
       <c r="AV70" s="6"/>
     </row>
-    <row r="71" spans="1:48" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>49</v>
@@ -7022,7 +7083,9 @@
         <v>53</v>
       </c>
       <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="N71" s="6">
+        <v>8</v>
+      </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -7074,13 +7137,13 @@
       <c r="AU71" s="6"/>
       <c r="AV71" s="6"/>
     </row>
-    <row r="72" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>49</v>
@@ -7123,28 +7186,28 @@
         <v>62</v>
       </c>
       <c r="R72" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W72" s="6">
+        <v>1</v>
+      </c>
+      <c r="X72" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="S72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W72" s="6">
-        <v>1</v>
-      </c>
-      <c r="X72" s="6" t="s">
+      <c r="Y72" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="Y72" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Z72" s="6" t="s">
         <v>219</v>
@@ -7153,7 +7216,7 @@
         <v>57</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>258</v>
@@ -7165,11 +7228,9 @@
         <v>60</v>
       </c>
       <c r="AF72" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG72" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AG72" s="6"/>
       <c r="AH72" s="6" t="s">
         <v>62</v>
       </c>
@@ -7216,13 +7277,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>49</v>
@@ -7244,7 +7305,9 @@
         <v>53</v>
       </c>
       <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="N73" s="6">
+        <v>9</v>
+      </c>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -7257,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6" t="s">
@@ -7267,7 +7330,7 @@
         <v>57</v>
       </c>
       <c r="AB73" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>270</v>
@@ -7299,7 +7362,7 @@
   </sheetData>
   <autoFilter ref="A1:AV73" xr:uid="{9E71EA41-0322-498C-AB1A-D064B01E7A41}">
     <filterColumn colId="1">
-      <filters>
+      <filters blank="1">
         <filter val="ESTAT tables only for popn aged 16 and over"/>
         <filter val="Low-skilled is ISCED 0-2"/>
         <filter val="New indicators added to PA11"/>
@@ -7315,6 +7378,45 @@
         <filter val="Population is aged 18 and over"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters blank="1">
+        <filter val="demo_mlexpecedu"/>
+        <filter val="edat_lfse_14"/>
+        <filter val="HLTH_DM010"/>
+        <filter val="HLTH_DPE010"/>
+        <filter val="HLTH_DPE020"/>
+        <filter val="hlth_hlye"/>
+        <filter val="ilc_di11"/>
+        <filter val="ilc_di11d"/>
+        <filter val="ilc_di11e"/>
+        <filter val="ilc_di11f"/>
+        <filter val="ilc_li02"/>
+        <filter val="ILC_LI06"/>
+        <filter val="ILC_LI07"/>
+        <filter val="ILC_LI32"/>
+        <filter val="ILC_LI70"/>
+        <filter val="ilc_lvhl11n"/>
+        <filter val="ILC_LVHL14N"/>
+        <filter val="ILC_LVHL16N"/>
+        <filter val="ilc_mdsd01"/>
+        <filter val="ilc_mdsd07"/>
+        <filter val="ilc_mdsd11"/>
+        <filter val="ilc_mdsd16"/>
+        <filter val="ilc_peps01n"/>
+        <filter val="ILC_PEPS04N"/>
+        <filter val="ILC_PEPS06N"/>
+        <filter val="ILC_PNP13"/>
+        <filter val="lfsi_neet_a"/>
+        <filter val="tepsr_sp200"/>
+        <filter val="une_rt_a"/>
+        <filter val="Yes (from LFS)"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7323,15 +7425,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DF1C4E-93DA-4183-A73C-7848766668BA}">
-  <dimension ref="A1:AV14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B1:AV40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7427,16 +7532,16 @@
         <v>30</v>
       </c>
       <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
       </c>
       <c r="AK1" t="s">
         <v>35</v>
@@ -7475,7 +7580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7531,21 +7636,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -7563,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="s">
         <v>56</v>
@@ -7575,30 +7677,27 @@
         <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="s">
         <v>60</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -7616,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
         <v>56</v>
@@ -7628,33 +7727,30 @@
         <v>58</v>
       </c>
       <c r="AC4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AD4" t="s">
         <v>60</v>
       </c>
       <c r="AE4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -7669,16 +7765,16 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s">
         <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s">
         <v>59</v>
@@ -7687,63 +7783,45 @@
         <v>60</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6">
-        <v>460</v>
-      </c>
       <c r="L6" t="s">
         <v>53</v>
-      </c>
-      <c r="M6">
-        <v>460</v>
       </c>
       <c r="N6">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6">
-        <v>-3</v>
-      </c>
-      <c r="V6" t="s">
-        <v>123</v>
-      </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s">
         <v>56</v>
@@ -7752,36 +7830,36 @@
         <v>57</v>
       </c>
       <c r="AB6" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s">
         <v>59</v>
       </c>
       <c r="AD6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
@@ -7796,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="Z7" t="s">
         <v>56</v>
@@ -7805,36 +7883,30 @@
         <v>57</v>
       </c>
       <c r="AB7" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AD7" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -7852,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
         <v>56</v>
@@ -7861,39 +7933,33 @@
         <v>57</v>
       </c>
       <c r="AB8" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="AC8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AD8" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -7908,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="Z9" t="s">
         <v>56</v>
@@ -7917,7 +7983,7 @@
         <v>57</v>
       </c>
       <c r="AB9" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="AC9" t="s">
         <v>59</v>
@@ -7926,27 +7992,24 @@
         <v>60</v>
       </c>
       <c r="AE9" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
@@ -7964,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
@@ -7973,39 +8036,36 @@
         <v>57</v>
       </c>
       <c r="AB10" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="AC10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AD10" t="s">
         <v>60</v>
       </c>
       <c r="AE10" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>52</v>
@@ -8020,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="Z11" t="s">
         <v>56</v>
@@ -8029,39 +8089,36 @@
         <v>57</v>
       </c>
       <c r="AB11" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="AC11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AD11" t="s">
         <v>60</v>
       </c>
       <c r="AE11" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
@@ -8076,16 +8133,16 @@
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="Z12" t="s">
         <v>56</v>
       </c>
       <c r="AA12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s">
         <v>59</v>
@@ -8094,30 +8151,27 @@
         <v>60</v>
       </c>
       <c r="AE12" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
@@ -8135,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="Z13" t="s">
         <v>56</v>
@@ -8144,42 +8198,33 @@
         <v>57</v>
       </c>
       <c r="AB13" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="AD13" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
         <v>52</v>
@@ -8194,28 +8239,1900 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AA14" t="s">
         <v>57</v>
       </c>
       <c r="AB14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>460</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>460</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18">
+        <v>-3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>454</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19">
+        <v>454</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19">
+        <v>-3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>123</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>455</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>455</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20">
+        <v>-3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>123</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>456</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21">
+        <v>456</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21">
+        <v>-3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>123</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <v>8</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB42" t="s">
         <v>257</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC42" t="s">
         <v>258</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD42" t="s">
         <v>59</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE42" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" t="s">
+        <v>53</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48">
+        <v>511</v>
+      </c>
+      <c r="L48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48">
+        <v>511</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="R48" t="s">
+        <v>272</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" t="s">
+        <v>53</v>
+      </c>
+      <c r="N49">
+        <v>9</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AV49" xr:uid="{39DF1C4E-93DA-4183-A73C-7848766668BA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PA11f3.S3."/>
+        <filter val="PA11f3.S5."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
